--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Freight Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Freight Intl.xlsx
@@ -356,9 +356,6 @@
     <t>OptionType</t>
   </si>
   <si>
-    <t>CA Freight International</t>
-  </si>
-  <si>
     <t xml:space="preserve">REVENUE 
 </t>
   </si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>00917</t>
+  </si>
+  <si>
+    <t>Save Label</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -722,19 +722,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -871,19 +858,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -904,11 +878,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -936,83 +907,74 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1333,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ4"/>
+  <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,6 +1320,7 @@
     <col min="15" max="15" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="60" customWidth="1"/>
     <col min="17" max="17" width="53.28515625" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
     <col min="26" max="26" width="82.28515625" customWidth="1"/>
     <col min="29" max="29" width="30.85546875" customWidth="1"/>
     <col min="45" max="45" width="103.42578125" customWidth="1"/>
@@ -1381,1346 +1344,1341 @@
     <col min="103" max="103" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:113" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="AD1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AE1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BO1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BP1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BT1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BU1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BV1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BW1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BX1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BY1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CA1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CB1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CC1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CD1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CE1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CF1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CG1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CH1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CI1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CK1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CL1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CN1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CP1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CR1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CS1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CT1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CU1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CV1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CW1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CX1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CY1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DA1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DB1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DC1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DD1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DE1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DF1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DG1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="DH1" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="DI1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="DJ1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:114" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="1:113" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AB2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AC2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AD2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AF2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AH2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AI2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AK2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AL2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AM2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AN2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AO2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AP2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AR2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AS2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AT2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AU2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AV2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AW2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AX2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AY2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="AZ2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BA2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BB2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BC2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BD2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BE2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BF2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BG2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BH2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BI2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BK2" s="13" t="s">
+      <c r="BJ2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BK2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BL2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BM2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="BO2" s="13" t="s">
+      <c r="BN2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="BP2" s="13" t="s">
+      <c r="BO2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BQ2" s="13" t="s">
+      <c r="BP2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BR2" s="13" t="s">
+      <c r="BQ2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BS2" s="13" t="s">
+      <c r="BR2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BT2" s="13" t="s">
+      <c r="BS2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BU2" s="14" t="s">
+      <c r="BT2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="BV2" s="14" t="s">
+      <c r="BU2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BW2" s="14" t="s">
+      <c r="BV2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BX2" s="14" t="s">
+      <c r="BW2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BY2" s="14" t="s">
+      <c r="BX2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BZ2" s="14" t="s">
+      <c r="BY2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CA2" s="14" t="s">
+      <c r="BZ2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CB2" s="14" t="s">
+      <c r="CA2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="14" t="s">
+      <c r="CB2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CD2" s="14" t="s">
+      <c r="CC2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CE2" s="14" t="s">
+      <c r="CD2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CF2" s="14" t="s">
+      <c r="CE2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CG2" s="14" t="s">
+      <c r="CF2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CH2" s="14" t="s">
+      <c r="CG2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CI2" s="14" t="s">
+      <c r="CH2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CJ2" s="14" t="s">
+      <c r="CI2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CK2" s="14" t="s">
+      <c r="CJ2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CL2" s="14" t="s">
+      <c r="CK2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CM2" s="14" t="s">
+      <c r="CL2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="CN2" s="14" t="s">
+      <c r="CM2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CO2" s="14" t="s">
+      <c r="CN2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="14" t="s">
+      <c r="CO2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="14" t="s">
+      <c r="CP2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CR2" s="14" t="s">
+      <c r="CQ2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="CS2" s="14" t="s">
+      <c r="CR2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="CT2" s="14" t="s">
+      <c r="CS2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" s="14" t="s">
+      <c r="CT2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" s="14" t="s">
+      <c r="CU2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CW2" s="14" t="s">
+      <c r="CV2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CX2" s="14" t="s">
+      <c r="CW2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CY2" s="14" t="s">
+      <c r="CX2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="CZ2" s="15" t="s">
+      <c r="CY2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="DA2" s="15" t="s">
+      <c r="CZ2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="DB2" s="15" t="s">
+      <c r="DA2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="DC2" s="15" t="s">
+      <c r="DB2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="DD2" s="15" t="s">
+      <c r="DC2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="DE2" s="15" t="s">
+      <c r="DD2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="DF2" s="15" t="s">
+      <c r="DE2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="DG2" s="13" t="s">
+      <c r="DF2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DH2" s="13" t="s">
+      <c r="DG2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="DI2" s="16" t="s">
+      <c r="DH2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="DJ2" s="17" t="s">
+      <c r="DI2" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="18" t="b">
+      <c r="C3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="19">
+        <v>20000</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="19">
+        <v>5166829292</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X3" s="19">
+        <v>9012367890</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>602091147</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL3" s="19">
+        <v>5166829292</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU3" s="19">
+        <v>200</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX3" s="19">
+        <v>50</v>
+      </c>
+      <c r="AY3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="19">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="BA3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB3" s="19">
+        <v>50</v>
+      </c>
+      <c r="BC3" s="19">
+        <v>180</v>
+      </c>
+      <c r="BD3" s="19">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="19">
+        <v>106</v>
+      </c>
+      <c r="BF3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO3" s="19">
+        <v>2000</v>
+      </c>
+      <c r="BP3" s="19">
+        <v>180</v>
+      </c>
+      <c r="BQ3" s="19">
+        <v>93</v>
+      </c>
+      <c r="BR3" s="19">
+        <v>106</v>
+      </c>
+      <c r="BS3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX3" s="19">
+        <v>12345</v>
+      </c>
+      <c r="BY3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ3" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB3" s="19">
+        <v>2500</v>
+      </c>
+      <c r="CC3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CD3" s="19">
+        <v>100</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG3" s="19">
+        <v>100</v>
+      </c>
+      <c r="CH3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI3" s="19">
+        <v>25</v>
+      </c>
+      <c r="CJ3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="CK3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL3" s="19">
+        <v>123456789</v>
+      </c>
+      <c r="CM3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="CN3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR3" s="19">
+        <v>2000</v>
+      </c>
+      <c r="CS3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CV3" s="19">
+        <v>2500</v>
+      </c>
+      <c r="CW3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX3" s="19">
+        <v>2500</v>
+      </c>
+      <c r="CY3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="DA3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="DB3" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC3" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="DE3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI3" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:113" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="I4" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L4" s="25">
+        <v>20000</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="21">
-        <v>20000</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="N4" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O4" s="25">
+        <v>5166829292</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="21">
+      <c r="Q4" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="X4" s="25">
+        <v>9012367890</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="25">
+        <v>602091147</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL4" s="25">
         <v>5166829292</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="21" t="s">
+      <c r="AM4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="AP4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="AQ4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>9012367890</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG3" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ3" s="21">
-        <v>602091147</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM3" s="21">
-        <v>5166829292</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AR4" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="AP3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AS4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU4" s="25">
+        <v>200</v>
+      </c>
+      <c r="AV4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX4" s="25">
+        <v>50</v>
+      </c>
+      <c r="AY4" s="25">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB4" s="25">
+        <v>50</v>
+      </c>
+      <c r="BC4" s="25">
+        <v>180</v>
+      </c>
+      <c r="BD4" s="25">
+        <v>93</v>
+      </c>
+      <c r="BE4" s="25">
+        <v>106</v>
+      </c>
+      <c r="BF4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH4" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI4" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK4" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO4" s="25">
+        <v>2000</v>
+      </c>
+      <c r="BP4" s="25">
+        <v>180</v>
+      </c>
+      <c r="BQ4" s="25">
+        <v>93</v>
+      </c>
+      <c r="BR4" s="25">
+        <v>106</v>
+      </c>
+      <c r="BS4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX4" s="25">
+        <v>12345</v>
+      </c>
+      <c r="BY4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AR3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT3" s="21" t="s">
+      <c r="BZ4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="AU3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV3" s="21">
-        <v>200</v>
-      </c>
-      <c r="AW3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY3" s="21">
-        <v>50</v>
-      </c>
-      <c r="AZ3" s="21">
+      <c r="CB4" s="25">
+        <v>2500</v>
+      </c>
+      <c r="CC4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CD4" s="25">
+        <v>100</v>
+      </c>
+      <c r="CE4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG4" s="25">
+        <v>100</v>
+      </c>
+      <c r="CH4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI4" s="25">
+        <v>25</v>
+      </c>
+      <c r="CJ4" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="CK4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL4" s="25">
+        <v>123456789</v>
+      </c>
+      <c r="CM4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="CN4" s="25">
         <v>1</v>
       </c>
-      <c r="BA3" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC3" s="21">
-        <v>50</v>
-      </c>
-      <c r="BD3" s="21">
-        <v>180</v>
-      </c>
-      <c r="BE3" s="21">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="21">
-        <v>106</v>
-      </c>
-      <c r="BG3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="BH3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI3" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ3" s="21">
+      <c r="CO4" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR4" s="25">
+        <v>2000</v>
+      </c>
+      <c r="CS4" s="25">
         <v>1</v>
       </c>
-      <c r="BK3" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL3" s="21">
+      <c r="CT4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CV4" s="25">
+        <v>2500</v>
+      </c>
+      <c r="CW4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX4" s="25">
+        <v>2500</v>
+      </c>
+      <c r="CY4" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ4" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="DA4" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="DB4" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC4" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD4" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="DE4" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="BM3" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN3" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP3" s="21">
-        <v>2000</v>
-      </c>
-      <c r="BQ3" s="21">
-        <v>180</v>
-      </c>
-      <c r="BR3" s="21">
-        <v>93</v>
-      </c>
-      <c r="BS3" s="21">
-        <v>106</v>
-      </c>
-      <c r="BT3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
-      <c r="BW3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BY3" s="21">
-        <v>12345</v>
-      </c>
-      <c r="BZ3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="CA3" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CC3" s="21">
-        <v>2500</v>
-      </c>
-      <c r="CD3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE3" s="21">
-        <v>100</v>
-      </c>
-      <c r="CF3" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CG3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CH3" s="21">
-        <v>100</v>
-      </c>
-      <c r="CI3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CJ3" s="21">
-        <v>25</v>
-      </c>
-      <c r="CK3" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL3" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="CM3" s="21">
-        <v>123456789</v>
-      </c>
-      <c r="CN3" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="CO3" s="21">
+      <c r="DF4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG4" s="25">
         <v>1</v>
       </c>
-      <c r="CP3" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="CQ3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="CS3" s="21">
-        <v>2000</v>
-      </c>
-      <c r="CT3" s="21">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="CV3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW3" s="21">
-        <v>2500</v>
-      </c>
-      <c r="CX3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY3" s="21">
-        <v>2500</v>
-      </c>
-      <c r="CZ3" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="DA3" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="DB3" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="DC3" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="DD3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="DE3" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="DF3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="21" t="s">
+      <c r="DH4" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="DH3" s="21">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="DJ3" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:114" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="27">
-        <v>20000</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="27">
-        <v>5166829292</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y4" s="27">
-        <v>9012367890</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ4" s="27">
-        <v>602091147</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL4" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM4" s="27">
-        <v>5166829292</v>
-      </c>
-      <c r="AN4" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS4" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT4" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV4" s="27">
-        <v>200</v>
-      </c>
-      <c r="AW4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY4" s="27">
-        <v>50</v>
-      </c>
-      <c r="AZ4" s="27">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="27">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC4" s="27">
-        <v>50</v>
-      </c>
-      <c r="BD4" s="27">
-        <v>180</v>
-      </c>
-      <c r="BE4" s="27">
-        <v>93</v>
-      </c>
-      <c r="BF4" s="27">
-        <v>106</v>
-      </c>
-      <c r="BG4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="BH4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ4" s="27">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL4" s="27">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN4" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP4" s="27">
-        <v>2000</v>
-      </c>
-      <c r="BQ4" s="27">
-        <v>180</v>
-      </c>
-      <c r="BR4" s="27">
-        <v>93</v>
-      </c>
-      <c r="BS4" s="27">
-        <v>106</v>
-      </c>
-      <c r="BT4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU4" s="27"/>
-      <c r="BV4" s="27"/>
-      <c r="BW4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX4" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="BY4" s="27">
-        <v>12345</v>
-      </c>
-      <c r="BZ4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="CA4" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CC4" s="27">
-        <v>2500</v>
-      </c>
-      <c r="CD4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE4" s="27">
-        <v>100</v>
-      </c>
-      <c r="CF4" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="CG4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CH4" s="27">
-        <v>100</v>
-      </c>
-      <c r="CI4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CJ4" s="27">
-        <v>25</v>
-      </c>
-      <c r="CK4" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL4" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="CM4" s="27">
-        <v>123456789</v>
-      </c>
-      <c r="CN4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="CO4" s="27">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="CQ4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="CS4" s="27">
-        <v>2000</v>
-      </c>
-      <c r="CT4" s="27">
-        <v>1</v>
-      </c>
-      <c r="CU4" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="CV4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW4" s="27">
-        <v>2500</v>
-      </c>
-      <c r="CX4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY4" s="27">
-        <v>2500</v>
-      </c>
-      <c r="CZ4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="DA4" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="DB4" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="DC4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="DD4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="DE4" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="DF4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="DH4" s="27">
-        <v>1</v>
       </c>
       <c r="DI4" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="DJ4" s="29" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
